--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efnb2-Ephb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efnb2-Ephb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>41.519606</v>
+        <v>29.41996</v>
       </c>
       <c r="H2">
-        <v>124.558818</v>
+        <v>88.25988000000001</v>
       </c>
       <c r="I2">
-        <v>0.7305114279806179</v>
+        <v>0.6207199949605289</v>
       </c>
       <c r="J2">
-        <v>0.7630546295388221</v>
+        <v>0.66829493802317</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.017772</v>
+        <v>0.02621333333333334</v>
       </c>
       <c r="N2">
-        <v>0.053316</v>
+        <v>0.07864</v>
       </c>
       <c r="O2">
-        <v>0.002629212535656932</v>
+        <v>0.003691658625980057</v>
       </c>
       <c r="P2">
-        <v>0.002699072137000843</v>
+        <v>0.00385459378223241</v>
       </c>
       <c r="Q2">
-        <v>0.7378864378319999</v>
+        <v>0.7711952181333335</v>
       </c>
       <c r="R2">
-        <v>6.640977940488</v>
+        <v>6.940756963200001</v>
       </c>
       <c r="S2">
-        <v>0.001920669803887286</v>
+        <v>0.002291486323714334</v>
       </c>
       <c r="T2">
-        <v>0.002059539489597735</v>
+        <v>0.002576005512801505</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>41.519606</v>
+        <v>29.41996</v>
       </c>
       <c r="H3">
-        <v>124.558818</v>
+        <v>88.25988000000001</v>
       </c>
       <c r="I3">
-        <v>0.7305114279806179</v>
+        <v>0.6207199949605289</v>
       </c>
       <c r="J3">
-        <v>0.7630546295388221</v>
+        <v>0.66829493802317</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>18.522097</v>
       </c>
       <c r="O3">
-        <v>0.9133942834993933</v>
+        <v>0.869497191776314</v>
       </c>
       <c r="P3">
-        <v>0.9376636644070619</v>
+        <v>0.9078733460084638</v>
       </c>
       <c r="Q3">
-        <v>256.3433899112607</v>
+        <v>181.6397842853734</v>
       </c>
       <c r="R3">
-        <v>2307.090509201346</v>
+        <v>1634.75805856836</v>
       </c>
       <c r="S3">
-        <v>0.6672449623484751</v>
+        <v>0.5397142924975876</v>
       </c>
       <c r="T3">
-        <v>0.715488600076145</v>
+        <v>0.6067271615036143</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>41.519606</v>
+        <v>29.41996</v>
       </c>
       <c r="H4">
-        <v>124.558818</v>
+        <v>88.25988000000001</v>
       </c>
       <c r="I4">
-        <v>0.7305114279806179</v>
+        <v>0.6207199949605289</v>
       </c>
       <c r="J4">
-        <v>0.7630546295388221</v>
+        <v>0.66829493802317</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.03562666666666667</v>
+        <v>0.900447</v>
       </c>
       <c r="N4">
-        <v>0.10688</v>
+        <v>1.800894</v>
       </c>
       <c r="O4">
-        <v>0.005270654884293887</v>
+        <v>0.1268111495977059</v>
       </c>
       <c r="P4">
-        <v>0.005410699039737605</v>
+        <v>0.08827206020930385</v>
       </c>
       <c r="Q4">
-        <v>1.479205163093333</v>
+        <v>26.49111472212</v>
       </c>
       <c r="R4">
-        <v>13.31284646784</v>
+        <v>158.94668833272</v>
       </c>
       <c r="S4">
-        <v>0.003850273625918545</v>
+        <v>0.07871421613922688</v>
       </c>
       <c r="T4">
-        <v>0.004128658951313039</v>
+        <v>0.05899177100675425</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>41.519606</v>
+        <v>7.183879666666667</v>
       </c>
       <c r="H5">
-        <v>124.558818</v>
+        <v>21.551639</v>
       </c>
       <c r="I5">
-        <v>0.7305114279806179</v>
+        <v>0.1515698101047853</v>
       </c>
       <c r="J5">
-        <v>0.7630546295388221</v>
+        <v>0.1631868437822795</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.52486</v>
+        <v>0.02621333333333334</v>
       </c>
       <c r="N5">
-        <v>1.04972</v>
+        <v>0.07864</v>
       </c>
       <c r="O5">
-        <v>0.07764846339550401</v>
+        <v>0.003691658625980057</v>
       </c>
       <c r="P5">
-        <v>0.05314108342059654</v>
+        <v>0.00385459378223241</v>
       </c>
       <c r="Q5">
-        <v>21.79198040516</v>
+        <v>0.1883134323288889</v>
       </c>
       <c r="R5">
-        <v>130.75188243096</v>
+        <v>1.69482089096</v>
       </c>
       <c r="S5">
-        <v>0.05672308987555037</v>
+        <v>0.0005595439969114897</v>
       </c>
       <c r="T5">
-        <v>0.04054954972279493</v>
+        <v>0.0006290189933853062</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>41.519606</v>
+        <v>7.183879666666667</v>
       </c>
       <c r="H6">
-        <v>124.558818</v>
+        <v>21.551639</v>
       </c>
       <c r="I6">
-        <v>0.7305114279806179</v>
+        <v>0.1515698101047853</v>
       </c>
       <c r="J6">
-        <v>0.7630546295388221</v>
+        <v>0.1631868437822795</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.007147333333333333</v>
+        <v>6.174032333333334</v>
       </c>
       <c r="N6">
-        <v>0.021442</v>
+        <v>18.522097</v>
       </c>
       <c r="O6">
-        <v>0.001057385685151848</v>
+        <v>0.869497191776314</v>
       </c>
       <c r="P6">
-        <v>0.001085480995603047</v>
+        <v>0.9078733460084638</v>
       </c>
       <c r="Q6">
-        <v>0.2967544639506666</v>
+        <v>44.3535053407759</v>
       </c>
       <c r="R6">
-        <v>2.670790175556</v>
+        <v>399.1815480669831</v>
       </c>
       <c r="S6">
-        <v>0.0007724323267865405</v>
+        <v>0.13178952424418</v>
       </c>
       <c r="T6">
-        <v>0.0008282812989713152</v>
+        <v>0.1481529858891786</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,45 +856,45 @@
         <v>21.551639</v>
       </c>
       <c r="I7">
-        <v>0.1263958572665066</v>
+        <v>0.1515698101047853</v>
       </c>
       <c r="J7">
-        <v>0.1320266053993819</v>
+        <v>0.1631868437822795</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.017772</v>
+        <v>0.900447</v>
       </c>
       <c r="N7">
-        <v>0.053316</v>
+        <v>1.800894</v>
       </c>
       <c r="O7">
-        <v>0.002629212535656932</v>
+        <v>0.1268111495977059</v>
       </c>
       <c r="P7">
-        <v>0.002699072137000843</v>
+        <v>0.08827206020930385</v>
       </c>
       <c r="Q7">
-        <v>0.127671909436</v>
+        <v>6.468702894211</v>
       </c>
       <c r="R7">
-        <v>1.149047184924</v>
+        <v>38.812217365266</v>
       </c>
       <c r="S7">
-        <v>0.0003323215723802035</v>
+        <v>0.0192207418636938</v>
       </c>
       <c r="T7">
-        <v>0.0003563493319762769</v>
+        <v>0.01440483889971564</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.183879666666667</v>
+        <v>0.3873096666666667</v>
       </c>
       <c r="H8">
-        <v>21.551639</v>
+        <v>1.161929</v>
       </c>
       <c r="I8">
-        <v>0.1263958572665066</v>
+        <v>0.008171692087327698</v>
       </c>
       <c r="J8">
-        <v>0.1320266053993819</v>
+        <v>0.008798009571759262</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>6.174032333333334</v>
+        <v>0.02621333333333334</v>
       </c>
       <c r="N8">
-        <v>18.522097</v>
+        <v>0.07864</v>
       </c>
       <c r="O8">
-        <v>0.9133942834993933</v>
+        <v>0.003691658625980057</v>
       </c>
       <c r="P8">
-        <v>0.9376636644070619</v>
+        <v>0.00385459378223241</v>
       </c>
       <c r="Q8">
-        <v>44.3535053407759</v>
+        <v>0.01015267739555556</v>
       </c>
       <c r="R8">
-        <v>399.1815480669831</v>
+        <v>0.09137409656000001</v>
       </c>
       <c r="S8">
-        <v>0.1154492534852324</v>
+        <v>3.016709758303627E-05</v>
       </c>
       <c r="T8">
-        <v>0.1237965506180097</v>
+        <v>3.391275299132448E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,51 +974,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.183879666666667</v>
+        <v>0.3873096666666667</v>
       </c>
       <c r="H9">
-        <v>21.551639</v>
+        <v>1.161929</v>
       </c>
       <c r="I9">
-        <v>0.1263958572665066</v>
+        <v>0.008171692087327698</v>
       </c>
       <c r="J9">
-        <v>0.1320266053993819</v>
+        <v>0.008798009571759262</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.03562666666666667</v>
+        <v>6.174032333333334</v>
       </c>
       <c r="N9">
-        <v>0.10688</v>
+        <v>18.522097</v>
       </c>
       <c r="O9">
-        <v>0.005270654884293887</v>
+        <v>0.869497191776314</v>
       </c>
       <c r="P9">
-        <v>0.005410699039737605</v>
+        <v>0.9078733460084638</v>
       </c>
       <c r="Q9">
-        <v>0.2559376862577778</v>
+        <v>2.391262405012556</v>
       </c>
       <c r="R9">
-        <v>2.30343917632</v>
+        <v>21.521361645113</v>
       </c>
       <c r="S9">
-        <v>0.0006661889424562261</v>
+        <v>0.007105263321992159</v>
       </c>
       <c r="T9">
-        <v>0.0007143562270542516</v>
+        <v>0.007987478388127573</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.183879666666667</v>
+        <v>0.3873096666666667</v>
       </c>
       <c r="H10">
-        <v>21.551639</v>
+        <v>1.161929</v>
       </c>
       <c r="I10">
-        <v>0.1263958572665066</v>
+        <v>0.008171692087327698</v>
       </c>
       <c r="J10">
-        <v>0.1320266053993819</v>
+        <v>0.008798009571759262</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.52486</v>
+        <v>0.900447</v>
       </c>
       <c r="N10">
-        <v>1.04972</v>
+        <v>1.800894</v>
       </c>
       <c r="O10">
-        <v>0.07764846339550401</v>
+        <v>0.1268111495977059</v>
       </c>
       <c r="P10">
-        <v>0.05314108342059654</v>
+        <v>0.08827206020930385</v>
       </c>
       <c r="Q10">
-        <v>3.770531081846667</v>
+        <v>0.348751827421</v>
       </c>
       <c r="R10">
-        <v>22.62318649108</v>
+        <v>2.092510964526</v>
       </c>
       <c r="S10">
-        <v>0.009814444096301689</v>
+        <v>0.001036261667752502</v>
       </c>
       <c r="T10">
-        <v>0.007016036851266737</v>
+        <v>0.0007766184306403651</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.183879666666667</v>
+        <v>10.122265</v>
       </c>
       <c r="H11">
-        <v>21.551639</v>
+        <v>20.24453</v>
       </c>
       <c r="I11">
-        <v>0.1263958572665066</v>
+        <v>0.2135656295858028</v>
       </c>
       <c r="J11">
-        <v>0.1320266053993819</v>
+        <v>0.153289545846405</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.007147333333333333</v>
+        <v>0.02621333333333334</v>
       </c>
       <c r="N11">
-        <v>0.021442</v>
+        <v>0.07864</v>
       </c>
       <c r="O11">
-        <v>0.001057385685151848</v>
+        <v>0.003691658625980057</v>
       </c>
       <c r="P11">
-        <v>0.001085480995603047</v>
+        <v>0.00385459378223241</v>
       </c>
       <c r="Q11">
-        <v>0.05134558260422222</v>
+        <v>0.2653383065333333</v>
       </c>
       <c r="R11">
-        <v>0.462110243438</v>
+        <v>1.5920298392</v>
       </c>
       <c r="S11">
-        <v>0.0001336491701361003</v>
+        <v>0.0007884113986732907</v>
       </c>
       <c r="T11">
-        <v>0.0001433123710750118</v>
+        <v>0.0005908689303007827</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.229894</v>
+        <v>10.122265</v>
       </c>
       <c r="H12">
-        <v>0.6896819999999999</v>
+        <v>20.24453</v>
       </c>
       <c r="I12">
-        <v>0.004044840748830231</v>
+        <v>0.2135656295858028</v>
       </c>
       <c r="J12">
-        <v>0.004225032410066655</v>
+        <v>0.153289545846405</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.017772</v>
+        <v>6.174032333333334</v>
       </c>
       <c r="N12">
-        <v>0.053316</v>
+        <v>18.522097</v>
       </c>
       <c r="O12">
-        <v>0.002629212535656932</v>
+        <v>0.869497191776314</v>
       </c>
       <c r="P12">
-        <v>0.002699072137000843</v>
+        <v>0.9078733460084638</v>
       </c>
       <c r="Q12">
-        <v>0.004085676167999999</v>
+        <v>62.49519139656833</v>
       </c>
       <c r="R12">
-        <v>0.036771085512</v>
+        <v>374.97114837941</v>
       </c>
       <c r="S12">
-        <v>1.063474600156041E-05</v>
+        <v>0.185694715184796</v>
       </c>
       <c r="T12">
-        <v>1.140366725593643E-05</v>
+        <v>0.1391674928956935</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.229894</v>
+        <v>10.122265</v>
       </c>
       <c r="H13">
-        <v>0.6896819999999999</v>
+        <v>20.24453</v>
       </c>
       <c r="I13">
-        <v>0.004044840748830231</v>
+        <v>0.2135656295858028</v>
       </c>
       <c r="J13">
-        <v>0.004225032410066655</v>
+        <v>0.153289545846405</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.174032333333334</v>
+        <v>0.900447</v>
       </c>
       <c r="N13">
-        <v>18.522097</v>
+        <v>1.800894</v>
       </c>
       <c r="O13">
-        <v>0.9133942834993933</v>
+        <v>0.1268111495977059</v>
       </c>
       <c r="P13">
-        <v>0.9376636644070619</v>
+        <v>0.08827206020930385</v>
       </c>
       <c r="Q13">
-        <v>1.419372989239333</v>
+        <v>9.114563152454998</v>
       </c>
       <c r="R13">
-        <v>12.774356903154</v>
+        <v>36.45825260981999</v>
       </c>
       <c r="S13">
-        <v>0.003694534417646938</v>
+        <v>0.02708250300233349</v>
       </c>
       <c r="T13">
-        <v>0.0039616593718617</v>
+        <v>0.01353118402041071</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.229894</v>
+        <v>0.2830933333333334</v>
       </c>
       <c r="H14">
-        <v>0.6896819999999999</v>
+        <v>0.84928</v>
       </c>
       <c r="I14">
-        <v>0.004044840748830231</v>
+        <v>0.005972873261555284</v>
       </c>
       <c r="J14">
-        <v>0.004225032410066655</v>
+        <v>0.006430662776386256</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,33 +1302,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.03562666666666667</v>
+        <v>0.02621333333333334</v>
       </c>
       <c r="N14">
-        <v>0.10688</v>
+        <v>0.07864</v>
       </c>
       <c r="O14">
-        <v>0.005270654884293887</v>
+        <v>0.003691658625980057</v>
       </c>
       <c r="P14">
-        <v>0.005410699039737605</v>
+        <v>0.00385459378223241</v>
       </c>
       <c r="Q14">
-        <v>0.008190356906666665</v>
+        <v>0.007420819911111112</v>
       </c>
       <c r="R14">
-        <v>0.07371321215999999</v>
+        <v>0.06678737920000001</v>
       </c>
       <c r="S14">
-        <v>2.1318959649013E-05</v>
+        <v>2.20498090979062E-05</v>
       </c>
       <c r="T14">
-        <v>2.286037880400791E-05</v>
+        <v>2.478759275349187E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,7 +1337,7 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,51 +1346,51 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.229894</v>
+        <v>0.2830933333333334</v>
       </c>
       <c r="H15">
-        <v>0.6896819999999999</v>
+        <v>0.84928</v>
       </c>
       <c r="I15">
-        <v>0.004044840748830231</v>
+        <v>0.005972873261555284</v>
       </c>
       <c r="J15">
-        <v>0.004225032410066655</v>
+        <v>0.006430662776386256</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.52486</v>
+        <v>6.174032333333334</v>
       </c>
       <c r="N15">
-        <v>1.04972</v>
+        <v>18.522097</v>
       </c>
       <c r="O15">
-        <v>0.07764846339550401</v>
+        <v>0.869497191776314</v>
       </c>
       <c r="P15">
-        <v>0.05314108342059654</v>
+        <v>0.9078733460084638</v>
       </c>
       <c r="Q15">
-        <v>0.12066216484</v>
+        <v>1.747827393351111</v>
       </c>
       <c r="R15">
-        <v>0.7239729890399998</v>
+        <v>15.73044654016</v>
       </c>
       <c r="S15">
-        <v>0.0003140756688261872</v>
+        <v>0.005193396527758153</v>
       </c>
       <c r="T15">
-        <v>0.0002245227997580762</v>
+        <v>0.005838227331849868</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1408,666 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.229894</v>
+        <v>0.2830933333333334</v>
       </c>
       <c r="H16">
-        <v>0.6896819999999999</v>
+        <v>0.84928</v>
       </c>
       <c r="I16">
-        <v>0.004044840748830231</v>
+        <v>0.005972873261555284</v>
       </c>
       <c r="J16">
-        <v>0.004225032410066655</v>
+        <v>0.006430662776386256</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.007147333333333333</v>
+        <v>0.900447</v>
       </c>
       <c r="N16">
-        <v>0.021442</v>
+        <v>1.800894</v>
       </c>
       <c r="O16">
-        <v>0.001057385685151848</v>
+        <v>0.1268111495977059</v>
       </c>
       <c r="P16">
-        <v>0.001085480995603047</v>
+        <v>0.08827206020930385</v>
       </c>
       <c r="Q16">
-        <v>0.001643129049333333</v>
+        <v>0.25491054272</v>
       </c>
       <c r="R16">
-        <v>0.014788161444</v>
+        <v>1.52946325632</v>
       </c>
       <c r="S16">
-        <v>4.276956706531967E-06</v>
+        <v>0.0007574269246992246</v>
       </c>
       <c r="T16">
-        <v>4.586192386934296E-06</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>7.2719705</v>
-      </c>
-      <c r="H17">
-        <v>14.543941</v>
-      </c>
-      <c r="I17">
-        <v>0.1279457602316344</v>
-      </c>
-      <c r="J17">
-        <v>0.08909703616318426</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M17">
-        <v>0.017772</v>
-      </c>
-      <c r="N17">
-        <v>0.053316</v>
-      </c>
-      <c r="O17">
-        <v>0.002629212535656932</v>
-      </c>
-      <c r="P17">
-        <v>0.002699072137000843</v>
-      </c>
-      <c r="Q17">
-        <v>0.129237459726</v>
-      </c>
-      <c r="R17">
-        <v>0.775424758356</v>
-      </c>
-      <c r="S17">
-        <v>0.0003363965966851692</v>
-      </c>
-      <c r="T17">
-        <v>0.0002404793277974072</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>7.2719705</v>
-      </c>
-      <c r="H18">
-        <v>14.543941</v>
-      </c>
-      <c r="I18">
-        <v>0.1279457602316344</v>
-      </c>
-      <c r="J18">
-        <v>0.08909703616318426</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>6.174032333333334</v>
-      </c>
-      <c r="N18">
-        <v>18.522097</v>
-      </c>
-      <c r="O18">
-        <v>0.9133942834993933</v>
-      </c>
-      <c r="P18">
-        <v>0.9376636644070619</v>
-      </c>
-      <c r="Q18">
-        <v>44.89738099404617</v>
-      </c>
-      <c r="R18">
-        <v>269.384285964277</v>
-      </c>
-      <c r="S18">
-        <v>0.1168649259935589</v>
-      </c>
-      <c r="T18">
-        <v>0.08354305341657987</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>7.2719705</v>
-      </c>
-      <c r="H19">
-        <v>14.543941</v>
-      </c>
-      <c r="I19">
-        <v>0.1279457602316344</v>
-      </c>
-      <c r="J19">
-        <v>0.08909703616318426</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M19">
-        <v>0.03562666666666667</v>
-      </c>
-      <c r="N19">
-        <v>0.10688</v>
-      </c>
-      <c r="O19">
-        <v>0.005270654884293887</v>
-      </c>
-      <c r="P19">
-        <v>0.005410699039737605</v>
-      </c>
-      <c r="Q19">
-        <v>0.2590760690133334</v>
-      </c>
-      <c r="R19">
-        <v>1.55445641408</v>
-      </c>
-      <c r="S19">
-        <v>0.0006743579460895583</v>
-      </c>
-      <c r="T19">
-        <v>0.0004820772480116078</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>7.2719705</v>
-      </c>
-      <c r="H20">
-        <v>14.543941</v>
-      </c>
-      <c r="I20">
-        <v>0.1279457602316344</v>
-      </c>
-      <c r="J20">
-        <v>0.08909703616318426</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0.52486</v>
-      </c>
-      <c r="N20">
-        <v>1.04972</v>
-      </c>
-      <c r="O20">
-        <v>0.07764846339550401</v>
-      </c>
-      <c r="P20">
-        <v>0.05314108342059654</v>
-      </c>
-      <c r="Q20">
-        <v>3.81676643663</v>
-      </c>
-      <c r="R20">
-        <v>15.26706574652</v>
-      </c>
-      <c r="S20">
-        <v>0.009934791679955993</v>
-      </c>
-      <c r="T20">
-        <v>0.004734713031275681</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>7.2719705</v>
-      </c>
-      <c r="H21">
-        <v>14.543941</v>
-      </c>
-      <c r="I21">
-        <v>0.1279457602316344</v>
-      </c>
-      <c r="J21">
-        <v>0.08909703616318426</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.007147333333333333</v>
-      </c>
-      <c r="N21">
-        <v>0.021442</v>
-      </c>
-      <c r="O21">
-        <v>0.001057385685151848</v>
-      </c>
-      <c r="P21">
-        <v>0.001085480995603047</v>
-      </c>
-      <c r="Q21">
-        <v>0.05197519715366666</v>
-      </c>
-      <c r="R21">
-        <v>0.311851182922</v>
-      </c>
-      <c r="S21">
-        <v>0.0001352880153448008</v>
-      </c>
-      <c r="T21">
-        <v>9.671313951969398E-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0.6310036666666666</v>
-      </c>
-      <c r="H22">
-        <v>1.893011</v>
-      </c>
-      <c r="I22">
-        <v>0.01110211377241086</v>
-      </c>
-      <c r="J22">
-        <v>0.011596696488545</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M22">
-        <v>0.017772</v>
-      </c>
-      <c r="N22">
-        <v>0.053316</v>
-      </c>
-      <c r="O22">
-        <v>0.002629212535656932</v>
-      </c>
-      <c r="P22">
-        <v>0.002699072137000843</v>
-      </c>
-      <c r="Q22">
-        <v>0.011214197164</v>
-      </c>
-      <c r="R22">
-        <v>0.100927774476</v>
-      </c>
-      <c r="S22">
-        <v>2.91898167027121E-05</v>
-      </c>
-      <c r="T22">
-        <v>3.130032037348732E-05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0.6310036666666666</v>
-      </c>
-      <c r="H23">
-        <v>1.893011</v>
-      </c>
-      <c r="I23">
-        <v>0.01110211377241086</v>
-      </c>
-      <c r="J23">
-        <v>0.011596696488545</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>6.174032333333334</v>
-      </c>
-      <c r="N23">
-        <v>18.522097</v>
-      </c>
-      <c r="O23">
-        <v>0.9133942834993933</v>
-      </c>
-      <c r="P23">
-        <v>0.9376636644070619</v>
-      </c>
-      <c r="Q23">
-        <v>3.895837040451889</v>
-      </c>
-      <c r="R23">
-        <v>35.062533364067</v>
-      </c>
-      <c r="S23">
-        <v>0.01014060725447996</v>
-      </c>
-      <c r="T23">
-        <v>0.01087380092446561</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0.6310036666666666</v>
-      </c>
-      <c r="H24">
-        <v>1.893011</v>
-      </c>
-      <c r="I24">
-        <v>0.01110211377241086</v>
-      </c>
-      <c r="J24">
-        <v>0.011596696488545</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M24">
-        <v>0.03562666666666667</v>
-      </c>
-      <c r="N24">
-        <v>0.10688</v>
-      </c>
-      <c r="O24">
-        <v>0.005270654884293887</v>
-      </c>
-      <c r="P24">
-        <v>0.005410699039737605</v>
-      </c>
-      <c r="Q24">
-        <v>0.02248055729777778</v>
-      </c>
-      <c r="R24">
-        <v>0.20232501568</v>
-      </c>
-      <c r="S24">
-        <v>5.851541018054372E-05</v>
-      </c>
-      <c r="T24">
-        <v>6.274623455469886E-05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.6310036666666666</v>
-      </c>
-      <c r="H25">
-        <v>1.893011</v>
-      </c>
-      <c r="I25">
-        <v>0.01110211377241086</v>
-      </c>
-      <c r="J25">
-        <v>0.011596696488545</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.52486</v>
-      </c>
-      <c r="N25">
-        <v>1.04972</v>
-      </c>
-      <c r="O25">
-        <v>0.07764846339550401</v>
-      </c>
-      <c r="P25">
-        <v>0.05314108342059654</v>
-      </c>
-      <c r="Q25">
-        <v>0.3311885844866667</v>
-      </c>
-      <c r="R25">
-        <v>1.98713150692</v>
-      </c>
-      <c r="S25">
-        <v>0.0008620620748697654</v>
-      </c>
-      <c r="T25">
-        <v>0.0006162610155011086</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0.6310036666666666</v>
-      </c>
-      <c r="H26">
-        <v>1.893011</v>
-      </c>
-      <c r="I26">
-        <v>0.01110211377241086</v>
-      </c>
-      <c r="J26">
-        <v>0.011596696488545</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.007147333333333333</v>
-      </c>
-      <c r="N26">
-        <v>0.021442</v>
-      </c>
-      <c r="O26">
-        <v>0.001057385685151848</v>
-      </c>
-      <c r="P26">
-        <v>0.001085480995603047</v>
-      </c>
-      <c r="Q26">
-        <v>0.004509993540222221</v>
-      </c>
-      <c r="R26">
-        <v>0.040589941862</v>
-      </c>
-      <c r="S26">
-        <v>1.173921617787442E-05</v>
-      </c>
-      <c r="T26">
-        <v>1.258799365009219E-05</v>
+        <v>0.0005676478517828966</v>
       </c>
     </row>
   </sheetData>
